--- a/515 Project Sources/Results_table(AutoRecovered).xlsx
+++ b/515 Project Sources/Results_table(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IE_582_Rep\fall18-bugracnr\515 Project Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93A15032-742D-4950-9A56-34C2AF6F89E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D131A092-0E2E-498F-AC4F-9DF4DCFE9116}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7150" xr2:uid="{62F534D2-9795-4E36-B66D-A54C69D9A2D3}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +51,7 @@
     <t>Max B</t>
   </si>
   <si>
-    <t>! 4,5,6 same net, diff demand</t>
+    <t>Ratio</t>
   </si>
 </sst>
 </file>
@@ -89,8 +88,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,34 +407,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C93C78-6769-45F4-A27F-968401CE970F}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.26953125" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -452,6 +461,10 @@
       <c r="E2">
         <v>0.43</v>
       </c>
+      <c r="F2">
+        <f>E2/D2</f>
+        <v>7.166666666666667</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -469,6 +482,10 @@
       <c r="E3">
         <v>0.56000000000000005</v>
       </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F14" si="0">E3/D3</f>
+        <v>2.2400000000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -486,6 +503,10 @@
       <c r="E4">
         <v>3.31</v>
       </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2.4160583941605838</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -498,16 +519,17 @@
         <v>152</v>
       </c>
       <c r="D5">
-        <v>31.53</v>
+        <v>3.49</v>
       </c>
       <c r="E5">
-        <v>5.36</v>
+        <v>23.34</v>
       </c>
       <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>6.6876790830945554</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -521,13 +543,17 @@
         <v>152</v>
       </c>
       <c r="D6">
-        <v>37.32</v>
+        <v>5.36</v>
       </c>
       <c r="E6">
-        <v>7.65</v>
+        <v>31.53</v>
       </c>
       <c r="F6">
-        <v>150</v>
+        <f t="shared" si="0"/>
+        <v>5.8824626865671643</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -541,13 +567,185 @@
         <v>152</v>
       </c>
       <c r="D7">
-        <v>46.72</v>
+        <v>7.65</v>
       </c>
       <c r="E7">
+        <v>31.96</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>4.177777777777778</v>
+      </c>
+      <c r="G7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>102</v>
+      </c>
+      <c r="C8">
+        <v>152</v>
+      </c>
+      <c r="D8">
         <v>9.2200000000000006</v>
       </c>
-      <c r="F7">
+      <c r="E8">
+        <v>45.13</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>4.8947939262472886</v>
+      </c>
+      <c r="G8">
         <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>102</v>
+      </c>
+      <c r="C9">
+        <v>152</v>
+      </c>
+      <c r="D9">
+        <v>10.58</v>
+      </c>
+      <c r="E9">
+        <v>43.75</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>4.1351606805293004</v>
+      </c>
+      <c r="G9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>202</v>
+      </c>
+      <c r="C10">
+        <v>304</v>
+      </c>
+      <c r="D10">
+        <v>9.58</v>
+      </c>
+      <c r="E10">
+        <v>48.52</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>5.0647181628392488</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>202</v>
+      </c>
+      <c r="C11">
+        <v>304</v>
+      </c>
+      <c r="D11">
+        <v>13.53</v>
+      </c>
+      <c r="E11">
+        <v>58.1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>4.2941611234294168</v>
+      </c>
+      <c r="G11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>202</v>
+      </c>
+      <c r="C12">
+        <v>304</v>
+      </c>
+      <c r="D12">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E12">
+        <v>89.4</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>4.382352941176471</v>
+      </c>
+      <c r="G12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>202</v>
+      </c>
+      <c r="C13">
+        <v>304</v>
+      </c>
+      <c r="D13">
+        <v>28.83</v>
+      </c>
+      <c r="E13">
+        <v>98.73</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>3.4245577523413115</v>
+      </c>
+      <c r="G13">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>202</v>
+      </c>
+      <c r="C14">
+        <v>304</v>
+      </c>
+      <c r="D14">
+        <v>39.53</v>
+      </c>
+      <c r="E14">
+        <v>101.33</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>2.5633695927143938</v>
+      </c>
+      <c r="G14">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
